--- a/DETALLE.xlsx
+++ b/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d18bcd00a3430d46/OFICINA/SUELDOS/2025/03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{4F254C8C-F1D0-4941-BB83-5BD871FE112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4C3DB2-CAF4-4791-A1FC-C74A4D80FECC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC560B1-F489-440F-9FE4-5BD7CC42C9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27120" yWindow="5055" windowWidth="19440" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDA0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +658,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,37 +694,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1019,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1037,32 +1058,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1116,11 +1137,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
@@ -1139,11 +1160,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
@@ -1162,11 +1183,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="44"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1185,13 +1206,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1210,11 +1231,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="47"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1233,11 +1254,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
@@ -1256,11 +1277,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="47"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1309,10 +1330,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1345,10 +1366,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1381,8 +1402,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1401,10 +1422,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/DETALLE.xlsx
+++ b/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\marzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC560B1-F489-440F-9FE4-5BD7CC42C9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF876C65-7C71-4FE1-87CE-1A33329D744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="5055" windowWidth="19440" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="1740" windowWidth="19140" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -685,6 +685,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,27 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1058,32 +1058,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1137,9 +1137,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="49"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="49"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="33"/>
       <c r="K4" s="38"/>
     </row>
@@ -1160,9 +1160,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="50"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="50"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="34"/>
       <c r="K5" s="39"/>
     </row>
@@ -1183,9 +1183,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="22"/>
       <c r="K6" s="41"/>
     </row>
@@ -1206,9 +1206,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1231,9 +1231,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="29"/>
       <c r="K8" s="44"/>
     </row>
@@ -1254,9 +1254,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="34"/>
       <c r="K9" s="39"/>
     </row>
@@ -1277,9 +1277,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="55"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="29"/>
       <c r="K10" s="44"/>
     </row>
@@ -1330,10 +1330,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1366,10 +1366,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1402,8 +1402,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1422,10 +1422,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/DETALLE.xlsx
+++ b/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\marzo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF876C65-7C71-4FE1-87CE-1A33329D744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422D439-DA2A-4FB4-B53E-E45C5EBBDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="1740" windowWidth="19140" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24390" yWindow="1365" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,9 +658,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,9 +671,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1035,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1058,32 +1052,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1137,11 +1131,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="46"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="38"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
@@ -1160,11 +1154,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="47"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="47"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
@@ -1183,11 +1177,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1206,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1231,11 +1225,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="49"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="44"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1254,11 +1248,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
@@ -1277,11 +1271,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="44"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1330,10 +1324,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1366,10 +1360,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1402,8 +1396,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1422,10 +1416,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/DETALLE.xlsx
+++ b/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422D439-DA2A-4FB4-B53E-E45C5EBBDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2CF11-476A-4FA1-9B1C-F2072EA5B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="1365" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27420" yWindow="3105" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,9 +664,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,9 +671,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,7 +1029,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1052,32 +1046,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1131,9 +1125,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1154,9 +1148,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="45"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1177,11 +1171,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1200,13 +1194,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1225,11 +1219,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1248,9 +1242,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1271,11 +1265,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1324,10 +1318,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1360,10 +1354,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1396,8 +1390,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1416,10 +1410,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
